--- a/medicine/Psychotrope/Kagami_biraki/Kagami_biraki.xlsx
+++ b/medicine/Psychotrope/Kagami_biraki/Kagami_biraki.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Fêté le 11 janvier au Japon, le kagami biraki (鏡開き?) signifie « ouvrir le miroir » et non pas « briser le miroir ».
 Traditionnellement, on brise le couvercle d'un tonneau de saké (komodaru) afin de le déguster lors d'une cérémonie shinto.
-Lors de cette cérémonie, les participants dégustent les kagami mochi ayant servi de décoration du Nouvel An, coupés en kaki-mochi, dans une bouillie sucrée à base de haricots rouges appelée shiruko (汁粉?)[1].
+Lors de cette cérémonie, les participants dégustent les kagami mochi ayant servi de décoration du Nouvel An, coupés en kaki-mochi, dans une bouillie sucrée à base de haricots rouges appelée shiruko (汁粉?).
 Le shogun Tokugawa[Lequel ?] fut le premier, il y a trois cents ans, à introduire cette cérémonie. Avant de partir en guerre, il brisa le couvercle d'un tonneau de saké afin de partager avec ses daimyos. Ils remportèrent la victoire : une tradition était née.
 Plusieurs arts martiaux et dojos ont introduit cette cérémonie afin de souligner le premier entraînement de la nouvelle année.
 </t>
